--- a/planning1.xlsx
+++ b/planning1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Solution" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,38 +35,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2C15BE"/>
-        <bgColor rgb="FF2C15BE"/>
+        <fgColor rgb="FF79D2D6"/>
+        <bgColor rgb="FF79D2D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF27F8CB"/>
-        <bgColor rgb="FF27F8CB"/>
+        <fgColor rgb="FF4ACA57"/>
+        <bgColor rgb="FF4ACA57"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF57FDC6"/>
-        <bgColor rgb="FF57FDC6"/>
+        <fgColor rgb="FFBC1466"/>
+        <bgColor rgb="FFBC1466"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF240C52"/>
-        <bgColor rgb="FF240C52"/>
+        <fgColor rgb="FF66B35C"/>
+        <bgColor rgb="FF66B35C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD94515"/>
-        <bgColor rgb="FFD94515"/>
+        <fgColor rgb="FF0E6A47"/>
+        <bgColor rgb="FF0E6A47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8D14D6"/>
-        <bgColor rgb="FF8D14D6"/>
+        <fgColor rgb="FF746367"/>
+        <bgColor rgb="FF746367"/>
       </patternFill>
     </fill>
   </fills>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,238 +464,306 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Period 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Period 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Period 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Period 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Period 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Period 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Person 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Enfermero</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Person 5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Anestesista</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Person 6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cirujano</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Person 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pediatra</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Person 8</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Ginecologo</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Person 9</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Médico de familia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Person 10</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Person 11</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" s="6" t="inlineStr"/>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Person 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Person 13</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Person 14</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>6</v>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Person 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Person 16</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Person 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Person 18</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
